--- a/ListasDatos/Bautista Sarao Eutiquio_2021.xlsx
+++ b/ListasDatos/Bautista Sarao Eutiquio_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="900">
   <si>
     <t>NC</t>
   </si>
@@ -481,6 +481,9 @@
     <t>jafet_tm@hotmail.com</t>
   </si>
   <si>
+    <t>yairu244@gmail.com</t>
+  </si>
+  <si>
     <t>2721150980</t>
   </si>
   <si>
@@ -595,6 +598,9 @@
     <t>2721119877</t>
   </si>
   <si>
+    <t>2722153753</t>
+  </si>
+  <si>
     <t>2721885313</t>
   </si>
   <si>
@@ -670,6 +676,9 @@
     <t>2722013483</t>
   </si>
   <si>
+    <t>2722173889</t>
+  </si>
+  <si>
     <t>SILVERIO ACEVEDO MENDEZ</t>
   </si>
   <si>
@@ -685,7 +694,7 @@
     <t>CLAUDIA IVETTE GARCIA GARCIA</t>
   </si>
   <si>
-    <t>MARIANA HERNANDEZ HERNANDEZ CARRERA HERNANDEZ</t>
+    <t>MARIANA CARRERA HERNANDEZ</t>
   </si>
   <si>
     <t>MIGUEL ANGEL COBOS SANCHEZ</t>
@@ -694,7 +703,7 @@
     <t>ALMA DELIA TZOYONTLE SANCHEZ</t>
   </si>
   <si>
-    <t>DOMINGO, NAZARIA CUATRA COYOHUA</t>
+    <t>DOMINGO CUATRA COYOHUA</t>
   </si>
   <si>
     <t>FELIPE DIAZ ROSAS</t>
@@ -727,7 +736,7 @@
     <t>MAURY ENRIQUEZ REYES</t>
   </si>
   <si>
-    <t>JUAN ESTEBAN PELLICO MAZAHUA PELLICO MAZAHUA</t>
+    <t>JUAN ESTEBAN PELLICO MAZAHUA</t>
   </si>
   <si>
     <t>ESPIRITU IMELDA GONZÁLEZ</t>
@@ -745,6 +754,9 @@
     <t>MARÍA CONCEPCIÓN SANCHEZ CANDELARIA</t>
   </si>
   <si>
+    <t>SARAY ROSETE YOPIHUA</t>
+  </si>
+  <si>
     <t>LOURDES GALLARDO COLORADO</t>
   </si>
   <si>
@@ -760,7 +772,7 @@
     <t>JESUS ROSAS CUENCA</t>
   </si>
   <si>
-    <t>TAMARA RIVERA VASQUEZ</t>
+    <t>TAMARA RIVERA VAZQUEZ</t>
   </si>
   <si>
     <t>BEATRIZ GONZALEZ CRUZ</t>
@@ -781,6 +793,9 @@
     <t>MARIA VICTORIA MENDOZA GOMEZ</t>
   </si>
   <si>
+    <t>ERNESTINA TREJO ROMERO</t>
+  </si>
+  <si>
     <t>miguelhernadez.151@outlook.com</t>
   </si>
   <si>
@@ -865,6 +880,9 @@
     <t>grm.96@hotmail.com</t>
   </si>
   <si>
+    <t>Urninaericka220@gmail.com</t>
+  </si>
+  <si>
     <t>2721688897</t>
   </si>
   <si>
@@ -907,6 +925,9 @@
     <t>2722958788</t>
   </si>
   <si>
+    <t>2721228070</t>
+  </si>
+  <si>
     <t>2721324255</t>
   </si>
   <si>
@@ -931,6 +952,9 @@
     <t>2722259780</t>
   </si>
   <si>
+    <t>2722052266</t>
+  </si>
+  <si>
     <t>ARAGON</t>
   </si>
   <si>
@@ -1204,6 +1228,9 @@
     <t>MARIA FERNANDA</t>
   </si>
   <si>
+    <t>jonathanyosefa@gmail.com</t>
+  </si>
+  <si>
     <t>marisolandrase@gmail.com</t>
   </si>
   <si>
@@ -1234,6 +1261,9 @@
     <t>zayradominguezt@gmail.com</t>
   </si>
   <si>
+    <t>karlajimenaflores9@gmail.com</t>
+  </si>
+  <si>
     <t>ferflores230804@gmail.com</t>
   </si>
   <si>
@@ -1330,6 +1360,9 @@
     <t>zetinafernanda5@gmail.com</t>
   </si>
   <si>
+    <t>2722332043</t>
+  </si>
+  <si>
     <t>2727225726</t>
   </si>
   <si>
@@ -1360,6 +1393,9 @@
     <t>2721576544</t>
   </si>
   <si>
+    <t>2722153201</t>
+  </si>
+  <si>
     <t>2722065009</t>
   </si>
   <si>
@@ -1432,7 +1468,7 @@
     <t>2722044415</t>
   </si>
   <si>
-    <t>52272200000000000</t>
+    <t>5.22722e+16</t>
   </si>
   <si>
     <t>2722969319</t>
@@ -1459,6 +1495,9 @@
     <t>2717134493</t>
   </si>
   <si>
+    <t>2726892685</t>
+  </si>
+  <si>
     <t>2721766614</t>
   </si>
   <si>
@@ -1513,7 +1552,10 @@
     <t>2722336787</t>
   </si>
   <si>
-    <t>LILIA MARGARITA HERNÁNDEZ GARCÍA ANDRADE HERNÁNDEZ</t>
+    <t>VICTOR ISIDRO ARGON SOLANO</t>
+  </si>
+  <si>
+    <t>LILIA MARGARITA HERNÁNDEZ GARCÍA</t>
   </si>
   <si>
     <t>REYNA MARTINEZ GONZALEZ</t>
@@ -1543,6 +1585,9 @@
     <t>BERNARDINO DOMINGUEZ PEREZ</t>
   </si>
   <si>
+    <t>CARLOS ALBERTO FLORES LEANDRO</t>
+  </si>
+  <si>
     <t>LUIS MIGUEL ALVAREZ FLORES</t>
   </si>
   <si>
@@ -1633,6 +1678,15 @@
     <t>ROSARIO RODRIGUEZ MORALES</t>
   </si>
   <si>
+    <t>FILIBERTO XOTLANIHUA YOPIHUA</t>
+  </si>
+  <si>
+    <t>SANDRA MONTSERRAT VALLEJO ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>hannabasilio22@gmail.com</t>
+  </si>
+  <si>
     <t>reynamartines201285@gmail.com</t>
   </si>
   <si>
@@ -1657,6 +1711,9 @@
     <t>humbertodt72@gmail.com</t>
   </si>
   <si>
+    <t>lizarpy2212@gmail.com</t>
+  </si>
+  <si>
     <t>ch556518@gmail.com</t>
   </si>
   <si>
@@ -1717,6 +1774,9 @@
     <t>charorodriguezmorales@gmail.com</t>
   </si>
   <si>
+    <t>smvallejoa@gmail.com</t>
+  </si>
+  <si>
     <t>2722793054</t>
   </si>
   <si>
@@ -1729,6 +1789,9 @@
     <t>2717152643</t>
   </si>
   <si>
+    <t>2721698970</t>
+  </si>
+  <si>
     <t>2722087342</t>
   </si>
   <si>
@@ -1783,12 +1846,18 @@
     <t>2721077548</t>
   </si>
   <si>
-    <t>52272300000000000</t>
+    <t>5.22723e+16</t>
   </si>
   <si>
     <t>2723147944</t>
   </si>
   <si>
+    <t>2721904269</t>
+  </si>
+  <si>
+    <t>2727055251</t>
+  </si>
+  <si>
     <t>ALVAREZ</t>
   </si>
   <si>
@@ -1963,25 +2032,25 @@
     <t>macr090477@gmail.com</t>
   </si>
   <si>
-    <t>2721822906.0</t>
-  </si>
-  <si>
-    <t>5566868104.0</t>
-  </si>
-  <si>
-    <t>2721908057.0</t>
-  </si>
-  <si>
-    <t>2722351016.0</t>
-  </si>
-  <si>
-    <t>2721318182.0</t>
-  </si>
-  <si>
-    <t>2713165753.0</t>
-  </si>
-  <si>
-    <t>2722797038.0</t>
+    <t>2721822906</t>
+  </si>
+  <si>
+    <t>5566868104</t>
+  </si>
+  <si>
+    <t>2721908057</t>
+  </si>
+  <si>
+    <t>2722351016</t>
+  </si>
+  <si>
+    <t>2721318182</t>
+  </si>
+  <si>
+    <t>2713165753</t>
+  </si>
+  <si>
+    <t>2722797038</t>
   </si>
   <si>
     <t>2722077414</t>
@@ -1990,31 +2059,31 @@
     <t>2723344713</t>
   </si>
   <si>
-    <t>2727059550.0</t>
-  </si>
-  <si>
-    <t>2722953104.0</t>
+    <t>2727059550</t>
+  </si>
+  <si>
+    <t>2722953104</t>
   </si>
   <si>
     <t>2721835509</t>
   </si>
   <si>
-    <t>2721288401.0</t>
+    <t>2721288401</t>
   </si>
   <si>
     <t>2722796078</t>
   </si>
   <si>
-    <t>2722808116.0</t>
-  </si>
-  <si>
-    <t>2721718612.0</t>
-  </si>
-  <si>
-    <t>2722112726.0</t>
-  </si>
-  <si>
-    <t>2721882932.0</t>
+    <t>2722808116</t>
+  </si>
+  <si>
+    <t>2721718612</t>
+  </si>
+  <si>
+    <t>2722112726</t>
+  </si>
+  <si>
+    <t>2721882932</t>
   </si>
   <si>
     <t>2721057879</t>
@@ -2023,40 +2092,40 @@
     <t>2722336864</t>
   </si>
   <si>
-    <t>2727212102.0</t>
-  </si>
-  <si>
-    <t>2727055271.0</t>
-  </si>
-  <si>
-    <t>2722017264.0</t>
-  </si>
-  <si>
-    <t>2721733068.0</t>
-  </si>
-  <si>
-    <t>2727255608.0</t>
-  </si>
-  <si>
-    <t>2717130876.0</t>
-  </si>
-  <si>
-    <t>8118557401.0</t>
+    <t>2727212102</t>
+  </si>
+  <si>
+    <t>2727055271</t>
+  </si>
+  <si>
+    <t>2722017264</t>
+  </si>
+  <si>
+    <t>2721733068</t>
+  </si>
+  <si>
+    <t>2727255608</t>
+  </si>
+  <si>
+    <t>2717130876</t>
+  </si>
+  <si>
+    <t>8118557401</t>
   </si>
   <si>
     <t>2721477398</t>
   </si>
   <si>
-    <t>2722170013.0</t>
-  </si>
-  <si>
-    <t>2721470035.0</t>
-  </si>
-  <si>
-    <t>2722299247.0</t>
-  </si>
-  <si>
-    <t>2721306767.0</t>
+    <t>2722170013</t>
+  </si>
+  <si>
+    <t>2721470035</t>
+  </si>
+  <si>
+    <t>2722299247</t>
+  </si>
+  <si>
+    <t>2721306767</t>
   </si>
   <si>
     <t>2722018680</t>
@@ -2089,12 +2158,18 @@
     <t>ILIANA SANTOS GUTIERREZ</t>
   </si>
   <si>
+    <t>JIMENEZ MARÍA SOLEDAD MOTA</t>
+  </si>
+  <si>
     <t>CATALINA SÁNCHEZ MAZAHUA</t>
   </si>
   <si>
     <t>TERESITA HERNANDEZ CORTEZ</t>
   </si>
   <si>
+    <t>MARISELA RODRIGUEZ VEGA</t>
+  </si>
+  <si>
     <t>DELIA ROSAS RUIZ</t>
   </si>
   <si>
@@ -2113,10 +2188,10 @@
     <t>MARIA GUADALUPE REYES SANCHEZ</t>
   </si>
   <si>
-    <t>LUCESITA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>YOLANDA GARCÍA ACEVEDO</t>
+    <t>LUZ DEL ROCIO HERNANDEZ LEAL</t>
+  </si>
+  <si>
+    <t>YOLANDA ACEVEDO GARCÍA ACEVEDO</t>
   </si>
   <si>
     <t>angelica199w37@gmail.com</t>
@@ -2137,12 +2212,18 @@
     <t>iliana.santos@live.com.mx</t>
   </si>
   <si>
+    <t>mota5378sl@gmail.com</t>
+  </si>
+  <si>
     <t>Kamosan27@gmail.com</t>
   </si>
   <si>
     <t>tcortes72@gmail.com</t>
   </si>
   <si>
+    <t>marove74@hotmail.com</t>
+  </si>
+  <si>
     <t>deliarosas7718@gmail.com</t>
   </si>
   <si>
@@ -2170,12 +2251,6 @@
     <t>2721753370</t>
   </si>
   <si>
-    <t>2722351016</t>
-  </si>
-  <si>
-    <t>2721733068</t>
-  </si>
-  <si>
     <t>2722145647</t>
   </si>
   <si>
@@ -2185,28 +2260,25 @@
     <t>2721323765</t>
   </si>
   <si>
-    <t>2722170013</t>
-  </si>
-  <si>
     <t>2721072224</t>
   </si>
   <si>
+    <t>8711885884</t>
+  </si>
+  <si>
     <t>2722802790</t>
   </si>
   <si>
     <t>2722980805</t>
   </si>
   <si>
-    <t>2722808116</t>
-  </si>
-  <si>
     <t>2727263931</t>
   </si>
   <si>
     <t>2721541486</t>
   </si>
   <si>
-    <t>2721882932</t>
+    <t>2721385183</t>
   </si>
   <si>
     <t>2721926023</t>
@@ -2386,7 +2458,7 @@
     <t>josueyaminrs@gmail.com</t>
   </si>
   <si>
-    <t>arturombappe10@gamil.com</t>
+    <t>arturombappe10@gmail.com</t>
   </si>
   <si>
     <t>sanjuanneftali@gmail.com</t>
@@ -2548,6 +2620,9 @@
     <t>MARTIN SAN JUAN CORTES</t>
   </si>
   <si>
+    <t>AGUSTÍN SOLANO MARTÍNEZ</t>
+  </si>
+  <si>
     <t>JESUS VÁZQUEZ SANTIAGO</t>
   </si>
   <si>
@@ -2555,9 +2630,6 @@
   </si>
   <si>
     <t>lilianagarciaconche@gmail.com</t>
-  </si>
-  <si>
-    <t>Marielc</t>
   </si>
   <si>
     <t>rethorespinosa@gmail.com</t>
@@ -3066,19 +3138,19 @@
         <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3098,19 +3170,19 @@
         <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="J3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3130,16 +3202,16 @@
         <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3159,16 +3231,16 @@
         <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
         <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3188,16 +3260,16 @@
         <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3217,19 +3289,19 @@
         <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3249,16 +3321,16 @@
         <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3278,19 +3350,19 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3310,19 +3382,19 @@
         <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
         <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3342,19 +3414,19 @@
         <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
         <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3374,19 +3446,19 @@
         <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J12" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3406,16 +3478,16 @@
         <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I13" t="s">
         <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3435,16 +3507,16 @@
         <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3464,19 +3536,19 @@
         <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="J15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3496,19 +3568,19 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J16" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3528,16 +3600,16 @@
         <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J17" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3557,19 +3629,19 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J18" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3589,19 +3661,19 @@
         <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I19" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3621,19 +3693,19 @@
         <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J20" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3653,16 +3725,16 @@
         <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I21" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="J21" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3682,19 +3754,19 @@
         <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I22" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3714,16 +3786,16 @@
         <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I23" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3743,19 +3815,19 @@
         <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I24" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3775,16 +3847,16 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J25" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3804,19 +3876,19 @@
         <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3836,19 +3908,19 @@
         <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
         <v>140</v>
       </c>
       <c r="J27" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3868,10 +3940,16 @@
         <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="H28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3891,19 +3969,19 @@
         <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3923,19 +4001,19 @@
         <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3955,19 +4033,19 @@
         <v>144</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3987,19 +4065,19 @@
         <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4019,19 +4097,19 @@
         <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
         <v>146</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4051,19 +4129,19 @@
         <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4083,19 +4161,19 @@
         <v>148</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4115,16 +4193,16 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4144,16 +4222,16 @@
         <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4173,19 +4251,19 @@
         <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I38" t="s">
         <v>151</v>
       </c>
       <c r="J38" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4205,19 +4283,19 @@
         <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J39" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4237,19 +4315,19 @@
         <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4264,6 +4342,24 @@
       </c>
       <c r="D41" t="s">
         <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4325,13 +4421,28 @@
         <v>21330051920388</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>362</v>
+      </c>
+      <c r="E2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I2" t="s">
+        <v>555</v>
+      </c>
+      <c r="J2" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4339,25 +4450,25 @@
         <v>21330051920029</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F3" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="H3" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="J3" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4365,31 +4476,31 @@
         <v>21330051920030</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="F4" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="G4" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="H4" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="I4" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="J4" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4397,31 +4508,31 @@
         <v>21330051920031</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F5" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H5" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="I5" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="J5" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4429,31 +4540,31 @@
         <v>21330051920032</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="F6" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G6" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="H6" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I6" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="J6" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4461,31 +4572,31 @@
         <v>21330051920033</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="G7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="H7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="I7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="J7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4493,31 +4604,31 @@
         <v>21330051920034</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F8" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="G8" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H8" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="I8" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="J8" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4525,28 +4636,28 @@
         <v>21330051920035</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="F9" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="H9" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="I9" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="J9" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4554,31 +4665,31 @@
         <v>21330051920036</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F10" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="G10" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H10" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="I10" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="J10" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4589,28 +4700,28 @@
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E11" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="F11" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="H11" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="I11" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="J11" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4618,31 +4729,31 @@
         <v>21330051920038</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F12" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="G12" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H12" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="I12" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="J12" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4653,10 +4764,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>373</v>
+      </c>
+      <c r="E13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F13" t="s">
+        <v>458</v>
+      </c>
+      <c r="G13" t="s">
+        <v>492</v>
+      </c>
+      <c r="H13" t="s">
+        <v>522</v>
+      </c>
+      <c r="I13" t="s">
+        <v>564</v>
+      </c>
+      <c r="J13" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4667,25 +4796,25 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E14" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F14" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="H14" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="I14" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="J14" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4696,22 +4825,22 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G15" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="H15" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="J15" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4722,25 +4851,25 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F16" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="H16" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="I16" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="J16" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4751,28 +4880,28 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E17" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F17" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="G17" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="H17" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="I17" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="J17" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4783,28 +4912,28 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F18" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G18" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="H18" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="I18" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="J18" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4818,22 +4947,22 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E19" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="H19" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="J19" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4844,25 +4973,25 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E20" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F20" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="G20" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="H20" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="J20" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4870,31 +4999,31 @@
         <v>21330051920046</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F21" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="G21" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="H21" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="I21" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="J21" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4908,19 +5037,19 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E22" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G22" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="H22" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="J22" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4931,25 +5060,25 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D23" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E23" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="H23" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="I23" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J23" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4957,28 +5086,28 @@
         <v>21330051920050</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C24" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F24" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="H24" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="I24" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="J24" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4986,31 +5115,31 @@
         <v>21330051920049</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E25" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F25" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G25" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H25" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="I25" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="J25" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5021,28 +5150,28 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E26" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="F26" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="G26" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H26" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="I26" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="J26" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5050,31 +5179,31 @@
         <v>21330051920052</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E27" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="F27" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G27" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="H27" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="I27" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="J27" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5082,7 +5211,7 @@
         <v>21330051920053</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -5091,19 +5220,19 @@
         <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F28" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H28" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="I28" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="J28" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5111,31 +5240,31 @@
         <v>21330051920054</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C29" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D29" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E29" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="G29" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="H29" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="I29" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="J29" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5149,22 +5278,22 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="E30" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="H30" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="I30" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="J30" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5172,25 +5301,25 @@
         <v>21330051920056</v>
       </c>
       <c r="B31" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C31" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E31" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="G31" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H31" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="J31" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5198,28 +5327,28 @@
         <v>21330051920057</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E32" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F32" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="H32" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="I32" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="J32" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5233,25 +5362,25 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E33" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F33" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G33" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="H33" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="I33" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="J33" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5259,25 +5388,25 @@
         <v>21330051920059</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D34" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E34" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="F34" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="H34" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="J34" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5285,31 +5414,31 @@
         <v>21330051920060</v>
       </c>
       <c r="B35" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D35" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E35" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="F35" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G35" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="H35" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="I35" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="J35" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5317,31 +5446,31 @@
         <v>21330051920061</v>
       </c>
       <c r="B36" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D36" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E36" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="F36" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="G36" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H36" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="I36" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="J36" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5349,28 +5478,28 @@
         <v>21330051920062</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C37" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D37" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E37" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F37" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="H37" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="I37" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="J37" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -5378,28 +5507,28 @@
         <v>21330051920063</v>
       </c>
       <c r="B38" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D38" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E38" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F38" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="G38" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H38" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="J38" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5413,25 +5542,25 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E39" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F39" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="G39" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="H39" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="I39" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="J39" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5439,31 +5568,31 @@
         <v>21330051920065</v>
       </c>
       <c r="B40" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C40" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D40" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E40" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F40" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G40" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="H40" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="I40" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="J40" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5471,31 +5600,31 @@
         <v>21330051920066</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E41" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G41" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H41" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="I41" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="J41" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5503,31 +5632,31 @@
         <v>21330051920067</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C42" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D42" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E42" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="F42" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="G42" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="H42" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="I42" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="J42" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5535,31 +5664,31 @@
         <v>21330051920069</v>
       </c>
       <c r="B43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" t="s">
         <v>328</v>
       </c>
-      <c r="C43" t="s">
-        <v>320</v>
-      </c>
       <c r="D43" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E43" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F43" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="G43" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="H43" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="I43" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="J43" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5570,19 +5699,25 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D44" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E44" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="F44" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="G44" t="s">
-        <v>497</v>
+        <v>510</v>
+      </c>
+      <c r="H44" t="s">
+        <v>553</v>
+      </c>
+      <c r="J44" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5590,19 +5725,28 @@
         <v>21330051920070</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C45" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D45" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E45" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="F45" t="s">
-        <v>474</v>
+        <v>486</v>
+      </c>
+      <c r="H45" t="s">
+        <v>554</v>
+      </c>
+      <c r="I45" t="s">
+        <v>585</v>
+      </c>
+      <c r="J45" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5664,31 +5808,31 @@
         <v>21330051920135</v>
       </c>
       <c r="B2" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="E2" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="F2" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="G2" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="H2" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="I2" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="J2" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5696,28 +5840,28 @@
         <v>21330051920136</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="E3" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="F3" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="H3" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="J3" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5725,31 +5869,31 @@
         <v>21330051920137</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="E4" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="F4" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G4" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="H4" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
       <c r="I4" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="J4" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5757,28 +5901,28 @@
         <v>21330051920138</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="E5" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="F5" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="H5" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="I5" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="J5" t="s">
-        <v>717</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5789,22 +5933,22 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="D6" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="E6" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="G6" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="H6" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="J6" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5812,31 +5956,31 @@
         <v>21330051920140</v>
       </c>
       <c r="B7" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="E7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="F7" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="G7" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="H7" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="I7" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="J7" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5847,28 +5991,28 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="E8" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="F8" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="G8" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="H8" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="I8" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="J8" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5876,31 +6020,31 @@
         <v>21330051920142</v>
       </c>
       <c r="B9" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="C9" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="D9" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="E9" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="F9" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="G9" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="H9" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="I9" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="J9" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5911,28 +6055,28 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="D10" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E10" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="F10" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="G10" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="H10" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="I10" t="s">
-        <v>705</v>
+        <v>730</v>
       </c>
       <c r="J10" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5940,22 +6084,31 @@
         <v>21330051920381</v>
       </c>
       <c r="B11" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D11" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="F11" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="G11" t="s">
-        <v>656</v>
+        <v>679</v>
+      </c>
+      <c r="H11" t="s">
+        <v>713</v>
+      </c>
+      <c r="I11" t="s">
+        <v>731</v>
+      </c>
+      <c r="J11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5969,25 +6122,25 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="E12" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="F12" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="G12" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
       <c r="H12" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="I12" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="J12" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5995,28 +6148,28 @@
         <v>21330051920145</v>
       </c>
       <c r="B13" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="E13" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="F13" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="H13" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="I13" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="J13" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6024,19 +6177,28 @@
         <v>21330051920384</v>
       </c>
       <c r="B14" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D14" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="E14" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="F14" t="s">
-        <v>659</v>
+        <v>682</v>
+      </c>
+      <c r="H14" t="s">
+        <v>716</v>
+      </c>
+      <c r="I14" t="s">
+        <v>734</v>
+      </c>
+      <c r="J14" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6044,31 +6206,31 @@
         <v>21330051920146</v>
       </c>
       <c r="B15" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="E15" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="F15" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="G15" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="H15" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
       <c r="I15" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="J15" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6079,25 +6241,25 @@
         <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="D16" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="E16" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="F16" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="H16" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="I16" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="J16" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6105,28 +6267,28 @@
         <v>21330051920147</v>
       </c>
       <c r="B17" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="E17" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="F17" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="H17" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="I17" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="J17" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6137,25 +6299,25 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="D18" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="E18" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="F18" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="G18" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="H18" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="J18" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6169,22 +6331,22 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="E19" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="F19" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="G19" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="H19" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="J19" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6198,22 +6360,22 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="E20" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="F20" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
       <c r="H20" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="I20" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="J20" t="s">
-        <v>729</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6221,25 +6383,28 @@
         <v>21330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="E21" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="F21" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="H21" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
       <c r="I21" t="s">
-        <v>712</v>
+        <v>739</v>
+      </c>
+      <c r="J21" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6247,7 +6412,7 @@
         <v>21330051920392</v>
       </c>
       <c r="B22" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -6256,22 +6421,22 @@
         <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="F22" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="G22" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="H22" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="I22" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="J22" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -6333,28 +6498,28 @@
         <v>19330051920042</v>
       </c>
       <c r="B2" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="C2" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="D2" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="E2" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
       <c r="F2" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="H2" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="I2" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="J2" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6362,28 +6527,28 @@
         <v>18330051920009</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="E3" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="F3" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="H3" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="I3" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="J3" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6391,25 +6556,25 @@
         <v>19330051920045</v>
       </c>
       <c r="B4" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="C4" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="D4" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="E4" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="F4" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="G4" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="H4" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6423,22 +6588,22 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="E5" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="F5" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="G5" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="H5" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="J5" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6449,28 +6614,25 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="D6" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="E6" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="F6" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="G6" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="H6" t="s">
-        <v>826</v>
-      </c>
-      <c r="I6" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="J6" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6478,31 +6640,31 @@
         <v>19330051920053</v>
       </c>
       <c r="B7" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="C7" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="D7" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="E7" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="F7" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="G7" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="H7" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="I7" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6513,25 +6675,25 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="D8" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="E8" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="F8" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="H8" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="I8" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="J8" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6545,19 +6707,19 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="E9" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="F9" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="G9" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="H9" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6568,28 +6730,28 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="D10" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="E10" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="F10" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="G10" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="H10" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="I10" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="J10" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6597,31 +6759,31 @@
         <v>18330051920022</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="C11" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="D11" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="E11" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="F11" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="G11" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="H11" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="I11" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="J11" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6632,25 +6794,25 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="D12" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="E12" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="F12" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="H12" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="I12" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="J12" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6664,22 +6826,22 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="E13" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="F13" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="H13" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="I13" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="J13" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6693,25 +6855,25 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="E14" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="F14" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="G14" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="H14" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="I14" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="J14" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6719,28 +6881,28 @@
         <v>19330051920064</v>
       </c>
       <c r="B15" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="C15" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="D15" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="E15" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="F15" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="H15" t="s">
-        <v>835</v>
+        <v>859</v>
       </c>
       <c r="I15" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="J15" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6751,28 +6913,28 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="D16" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="E16" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="F16" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="G16" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="H16" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="I16" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="J16" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6789,22 +6951,22 @@
         <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="F17" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="G17" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="H17" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="I17" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="J17" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6812,28 +6974,28 @@
         <v>19330051920069</v>
       </c>
       <c r="B18" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="C18" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="D18" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="E18" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="F18" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="H18" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="I18" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="J18" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6847,22 +7009,22 @@
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="E19" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="F19" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="H19" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="I19" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="J19" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6870,28 +7032,28 @@
         <v>18330051920078</v>
       </c>
       <c r="B20" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="E20" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="F20" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="H20" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="I20" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="J20" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6899,22 +7061,22 @@
         <v>19330051920075</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="E21" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="F21" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="H21" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6922,31 +7084,31 @@
         <v>19330051920418</v>
       </c>
       <c r="B22" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="C22" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="D22" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="E22" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="F22" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="G22" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="H22" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="I22" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="J22" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6954,19 +7116,22 @@
         <v>19330051920076</v>
       </c>
       <c r="B23" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="C23" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="D23" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="E23" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="F23" t="s">
-        <v>814</v>
+        <v>838</v>
+      </c>
+      <c r="H23" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6977,28 +7142,28 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D24" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="E24" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="F24" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="G24" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="H24" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="I24" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="J24" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
